--- a/datas/Processed notebook datas/All_processed_values.xlsx
+++ b/datas/Processed notebook datas/All_processed_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\.vscode\Folders\Github\Mobile-Robot\datas\Processed notebook datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61420D0C-B38D-4905-822D-FEAFA49DDFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CCDAC1-10DD-49DB-9F8B-954855D4DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{D227F301-55E0-4A21-BB0B-C04091E3F129}"/>
   </bookViews>
@@ -12563,6 +12563,3008 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Kp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> = 0.7 Ki= 1.2</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$U$104:$U$320</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$V$104:$V$320</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.314</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.054</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.099</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.121</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.143</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.165</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.335</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.3560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.377</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.397</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.4379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.458</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.478</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.498</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.518</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.538</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.5580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.5780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.5980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.635</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.6519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.6679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.712</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.7190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.724</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.7310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.724</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.7110000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02EF-4998-8C9F-E65D444D9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$U$104:$U$320</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$W$104:$W$320</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="217"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.38100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.0609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.0820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.103</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.167</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.2310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.252</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.2729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.3160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.337</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.379</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.401</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.4219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.464</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.5069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.528</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.548</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.5669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.585</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.653</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.661</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.6679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.6739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.679</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.671</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02EF-4998-8C9F-E65D444D9662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1811929472"/>
+        <c:axId val="1811930432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1811929472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811930432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1811930432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811929472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12684,6 +15686,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14787,6 +17829,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14865,16 +18423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14903,16 +18461,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14932,6 +18490,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDD468D-B91E-45AD-BDE9-7E36C649150E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17650,20 +21246,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89D4DA-E4D8-4505-B910-587E46D2F485}">
-  <dimension ref="A103:R321"/>
+  <dimension ref="A103:W321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" zoomScale="50" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" workbookViewId="0">
+      <selection activeCell="AF46" sqref="AF46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -17700,8 +21296,17 @@
       <c r="R104">
         <v>0</v>
       </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -17738,8 +21343,17 @@
       <c r="R105">
         <v>0</v>
       </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>2E-3</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3</v>
       </c>
@@ -17776,8 +21390,17 @@
       <c r="R106">
         <v>0</v>
       </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>4</v>
       </c>
@@ -17814,8 +21437,17 @@
       <c r="R107">
         <v>1E-3</v>
       </c>
+      <c r="U107">
+        <v>4</v>
+      </c>
+      <c r="V107">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W107">
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -17852,8 +21484,17 @@
       <c r="R108">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="U108">
+        <v>5</v>
+      </c>
+      <c r="V108">
+        <v>0.01</v>
+      </c>
+      <c r="W108">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6</v>
       </c>
@@ -17890,8 +21531,17 @@
       <c r="R109">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="U109">
+        <v>6</v>
+      </c>
+      <c r="V109">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W109">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>7</v>
       </c>
@@ -17928,8 +21578,17 @@
       <c r="R110">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="U110">
+        <v>7</v>
+      </c>
+      <c r="V110">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W110">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8</v>
       </c>
@@ -17966,8 +21625,17 @@
       <c r="R111">
         <v>1.6E-2</v>
       </c>
+      <c r="U111">
+        <v>8</v>
+      </c>
+      <c r="V111">
+        <v>0.02</v>
+      </c>
+      <c r="W111">
+        <v>1.6E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>9</v>
       </c>
@@ -18004,8 +21672,17 @@
       <c r="R112">
         <v>2.3E-2</v>
       </c>
+      <c r="U112">
+        <v>9</v>
+      </c>
+      <c r="V112">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W112">
+        <v>2.3E-2</v>
+      </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10</v>
       </c>
@@ -18042,8 +21719,17 @@
       <c r="R113">
         <v>3.1E-2</v>
       </c>
+      <c r="U113">
+        <v>10</v>
+      </c>
+      <c r="V113">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="W113">
+        <v>3.1E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11</v>
       </c>
@@ -18080,8 +21766,17 @@
       <c r="R114">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="U114">
+        <v>11</v>
+      </c>
+      <c r="V114">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="W114">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -18118,8 +21813,17 @@
       <c r="R115">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="U115">
+        <v>12</v>
+      </c>
+      <c r="V115">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="W115">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>13</v>
       </c>
@@ -18156,8 +21860,17 @@
       <c r="R116">
         <v>6.3E-2</v>
       </c>
+      <c r="U116">
+        <v>13</v>
+      </c>
+      <c r="V116">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="W116">
+        <v>6.3E-2</v>
+      </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -18194,8 +21907,17 @@
       <c r="R117">
         <v>7.5999999999999998E-2</v>
       </c>
+      <c r="U117">
+        <v>14</v>
+      </c>
+      <c r="V117">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="W117">
+        <v>7.5999999999999998E-2</v>
+      </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>15</v>
       </c>
@@ -18232,8 +21954,17 @@
       <c r="R118">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="U118">
+        <v>15</v>
+      </c>
+      <c r="V118">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="W118">
+        <v>9.0999999999999998E-2</v>
+      </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>16</v>
       </c>
@@ -18270,8 +22001,17 @@
       <c r="R119">
         <v>0.106</v>
       </c>
+      <c r="U119">
+        <v>16</v>
+      </c>
+      <c r="V119">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="W119">
+        <v>0.106</v>
+      </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>17</v>
       </c>
@@ -18308,8 +22048,17 @@
       <c r="R120">
         <v>0.123</v>
       </c>
+      <c r="U120">
+        <v>17</v>
+      </c>
+      <c r="V120">
+        <v>0.113</v>
+      </c>
+      <c r="W120">
+        <v>0.123</v>
+      </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>18</v>
       </c>
@@ -18346,8 +22095,17 @@
       <c r="R121">
         <v>0.14099999999999999</v>
       </c>
+      <c r="U121">
+        <v>18</v>
+      </c>
+      <c r="V121">
+        <v>0.129</v>
+      </c>
+      <c r="W121">
+        <v>0.14099999999999999</v>
+      </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>19</v>
       </c>
@@ -18384,8 +22142,17 @@
       <c r="R122">
         <v>0.161</v>
       </c>
+      <c r="U122">
+        <v>19</v>
+      </c>
+      <c r="V122">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="W122">
+        <v>0.161</v>
+      </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>20</v>
       </c>
@@ -18422,8 +22189,17 @@
       <c r="R123">
         <v>0.18099999999999999</v>
       </c>
+      <c r="U123">
+        <v>20</v>
+      </c>
+      <c r="V123">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="W123">
+        <v>0.18099999999999999</v>
+      </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>21</v>
       </c>
@@ -18460,8 +22236,17 @@
       <c r="R124">
         <v>0.20200000000000001</v>
       </c>
+      <c r="U124">
+        <v>21</v>
+      </c>
+      <c r="V124">
+        <v>0.185</v>
+      </c>
+      <c r="W124">
+        <v>0.20200000000000001</v>
+      </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>22</v>
       </c>
@@ -18498,8 +22283,17 @@
       <c r="R125">
         <v>0.223</v>
       </c>
+      <c r="U125">
+        <v>22</v>
+      </c>
+      <c r="V125">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="W125">
+        <v>0.223</v>
+      </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>23</v>
       </c>
@@ -18536,8 +22330,17 @@
       <c r="R126">
         <v>0.24399999999999999</v>
       </c>
+      <c r="U126">
+        <v>23</v>
+      </c>
+      <c r="V126">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="W126">
+        <v>0.24399999999999999</v>
+      </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24</v>
       </c>
@@ -18574,8 +22377,17 @@
       <c r="R127">
         <v>0.26600000000000001</v>
       </c>
+      <c r="U127">
+        <v>24</v>
+      </c>
+      <c r="V127">
+        <v>0.249</v>
+      </c>
+      <c r="W127">
+        <v>0.26600000000000001</v>
+      </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>25</v>
       </c>
@@ -18612,8 +22424,17 @@
       <c r="R128">
         <v>0.28699999999999998</v>
       </c>
+      <c r="U128">
+        <v>25</v>
+      </c>
+      <c r="V128">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="W128">
+        <v>0.28699999999999998</v>
+      </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>26</v>
       </c>
@@ -18650,8 +22471,17 @@
       <c r="R129">
         <v>0.308</v>
       </c>
+      <c r="U129">
+        <v>26</v>
+      </c>
+      <c r="V129">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="W129">
+        <v>0.308</v>
+      </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>27</v>
       </c>
@@ -18688,8 +22518,17 @@
       <c r="R130">
         <v>0.32900000000000001</v>
       </c>
+      <c r="U130">
+        <v>27</v>
+      </c>
+      <c r="V130">
+        <v>0.314</v>
+      </c>
+      <c r="W130">
+        <v>0.32900000000000001</v>
+      </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>28</v>
       </c>
@@ -18726,8 +22565,17 @@
       <c r="R131">
         <v>0.35099999999999998</v>
       </c>
+      <c r="U131">
+        <v>28</v>
+      </c>
+      <c r="V131">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="W131">
+        <v>0.35099999999999998</v>
+      </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>29</v>
       </c>
@@ -18764,8 +22612,17 @@
       <c r="R132">
         <v>0.372</v>
       </c>
+      <c r="U132">
+        <v>29</v>
+      </c>
+      <c r="V132">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="W132">
+        <v>0.372</v>
+      </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>30</v>
       </c>
@@ -18802,8 +22659,17 @@
       <c r="R133">
         <v>0.39300000000000002</v>
       </c>
+      <c r="U133">
+        <v>30</v>
+      </c>
+      <c r="V133">
+        <v>0.379</v>
+      </c>
+      <c r="W133">
+        <v>0.39300000000000002</v>
+      </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>31</v>
       </c>
@@ -18840,8 +22706,17 @@
       <c r="R134">
         <v>0.41399999999999998</v>
       </c>
+      <c r="U134">
+        <v>31</v>
+      </c>
+      <c r="V134">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="W134">
+        <v>0.41399999999999998</v>
+      </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>32</v>
       </c>
@@ -18878,8 +22753,17 @@
       <c r="R135">
         <v>0.436</v>
       </c>
+      <c r="U135">
+        <v>32</v>
+      </c>
+      <c r="V135">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="W135">
+        <v>0.436</v>
+      </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>33</v>
       </c>
@@ -18916,8 +22800,17 @@
       <c r="R136">
         <v>0.45700000000000002</v>
       </c>
+      <c r="U136">
+        <v>33</v>
+      </c>
+      <c r="V136">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="W136">
+        <v>0.45700000000000002</v>
+      </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>34</v>
       </c>
@@ -18954,8 +22847,17 @@
       <c r="R137">
         <v>0.47799999999999998</v>
       </c>
+      <c r="U137">
+        <v>34</v>
+      </c>
+      <c r="V137">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="W137">
+        <v>0.47799999999999998</v>
+      </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>35</v>
       </c>
@@ -18992,8 +22894,17 @@
       <c r="R138">
         <v>0.499</v>
       </c>
+      <c r="U138">
+        <v>35</v>
+      </c>
+      <c r="V138">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="W138">
+        <v>0.499</v>
+      </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>36</v>
       </c>
@@ -19030,8 +22941,17 @@
       <c r="R139">
         <v>0.52100000000000002</v>
       </c>
+      <c r="U139">
+        <v>36</v>
+      </c>
+      <c r="V139">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="W139">
+        <v>0.52100000000000002</v>
+      </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>37</v>
       </c>
@@ -19068,8 +22988,17 @@
       <c r="R140">
         <v>0.54200000000000004</v>
       </c>
+      <c r="U140">
+        <v>37</v>
+      </c>
+      <c r="V140">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="W140">
+        <v>0.54200000000000004</v>
+      </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>38</v>
       </c>
@@ -19106,8 +23035,17 @@
       <c r="R141">
         <v>0.56299999999999994</v>
       </c>
+      <c r="U141">
+        <v>38</v>
+      </c>
+      <c r="V141">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="W141">
+        <v>0.56299999999999994</v>
+      </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>39</v>
       </c>
@@ -19144,8 +23082,17 @@
       <c r="R142">
         <v>0.58399999999999996</v>
       </c>
+      <c r="U142">
+        <v>39</v>
+      </c>
+      <c r="V142">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="W142">
+        <v>0.58399999999999996</v>
+      </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>40</v>
       </c>
@@ -19182,8 +23129,17 @@
       <c r="R143">
         <v>0.60599999999999998</v>
       </c>
+      <c r="U143">
+        <v>40</v>
+      </c>
+      <c r="V143">
+        <v>0.6</v>
+      </c>
+      <c r="W143">
+        <v>0.60599999999999998</v>
+      </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>41</v>
       </c>
@@ -19220,8 +23176,17 @@
       <c r="R144">
         <v>0.627</v>
       </c>
+      <c r="U144">
+        <v>41</v>
+      </c>
+      <c r="V144">
+        <v>0.622</v>
+      </c>
+      <c r="W144">
+        <v>0.627</v>
+      </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>42</v>
       </c>
@@ -19258,8 +23223,17 @@
       <c r="R145">
         <v>0.64800000000000002</v>
       </c>
+      <c r="U145">
+        <v>42</v>
+      </c>
+      <c r="V145">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="W145">
+        <v>0.64800000000000002</v>
+      </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>43</v>
       </c>
@@ -19296,8 +23270,17 @@
       <c r="R146">
         <v>0.66900000000000004</v>
       </c>
+      <c r="U146">
+        <v>43</v>
+      </c>
+      <c r="V146">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="W146">
+        <v>0.66900000000000004</v>
+      </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>44</v>
       </c>
@@ -19334,8 +23317,17 @@
       <c r="R147">
         <v>0.68899999999999995</v>
       </c>
+      <c r="U147">
+        <v>44</v>
+      </c>
+      <c r="V147">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="W147">
+        <v>0.68899999999999995</v>
+      </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>45</v>
       </c>
@@ -19372,8 +23364,17 @@
       <c r="R148">
         <v>0.70899999999999996</v>
       </c>
+      <c r="U148">
+        <v>45</v>
+      </c>
+      <c r="V148">
+        <v>0.71</v>
+      </c>
+      <c r="W148">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>46</v>
       </c>
@@ -19410,8 +23411,17 @@
       <c r="R149">
         <v>0.72699999999999998</v>
       </c>
+      <c r="U149">
+        <v>46</v>
+      </c>
+      <c r="V149">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="W149">
+        <v>0.72699999999999998</v>
+      </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>47</v>
       </c>
@@ -19448,8 +23458,17 @@
       <c r="R150">
         <v>0.74299999999999999</v>
       </c>
+      <c r="U150">
+        <v>47</v>
+      </c>
+      <c r="V150">
+        <v>0.751</v>
+      </c>
+      <c r="W150">
+        <v>0.74299999999999999</v>
+      </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>48</v>
       </c>
@@ -19486,8 +23505,17 @@
       <c r="R151">
         <v>0.75800000000000001</v>
       </c>
+      <c r="U151">
+        <v>48</v>
+      </c>
+      <c r="V151">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="W151">
+        <v>0.75800000000000001</v>
+      </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>49</v>
       </c>
@@ -19524,8 +23552,17 @@
       <c r="R152">
         <v>0.77200000000000002</v>
       </c>
+      <c r="U152">
+        <v>49</v>
+      </c>
+      <c r="V152">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="W152">
+        <v>0.77200000000000002</v>
+      </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>50</v>
       </c>
@@ -19562,8 +23599,17 @@
       <c r="R153">
         <v>0.78300000000000003</v>
       </c>
+      <c r="U153">
+        <v>50</v>
+      </c>
+      <c r="V153">
+        <v>0.8</v>
+      </c>
+      <c r="W153">
+        <v>0.78300000000000003</v>
+      </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>51</v>
       </c>
@@ -19600,8 +23646,17 @@
       <c r="R154">
         <v>0.79400000000000004</v>
       </c>
+      <c r="U154">
+        <v>51</v>
+      </c>
+      <c r="V154">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="W154">
+        <v>0.79400000000000004</v>
+      </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>52</v>
       </c>
@@ -19638,8 +23693,17 @@
       <c r="R155">
         <v>0.80300000000000005</v>
       </c>
+      <c r="U155">
+        <v>52</v>
+      </c>
+      <c r="V155">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="W155">
+        <v>0.80300000000000005</v>
+      </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>53</v>
       </c>
@@ -19676,8 +23740,17 @@
       <c r="R156">
         <v>0.81</v>
       </c>
+      <c r="U156">
+        <v>53</v>
+      </c>
+      <c r="V156">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="W156">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>54</v>
       </c>
@@ -19714,8 +23787,17 @@
       <c r="R157">
         <v>0.81499999999999995</v>
       </c>
+      <c r="U157">
+        <v>54</v>
+      </c>
+      <c r="V157">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="W157">
+        <v>0.81499999999999995</v>
+      </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>55</v>
       </c>
@@ -19752,8 +23834,17 @@
       <c r="R158">
         <v>0.81899999999999995</v>
       </c>
+      <c r="U158">
+        <v>55</v>
+      </c>
+      <c r="V158">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="W158">
+        <v>0.81899999999999995</v>
+      </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>56</v>
       </c>
@@ -19790,8 +23881,17 @@
       <c r="R159">
         <v>0.82199999999999995</v>
       </c>
+      <c r="U159">
+        <v>56</v>
+      </c>
+      <c r="V159">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="W159">
+        <v>0.82199999999999995</v>
+      </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>57</v>
       </c>
@@ -19828,8 +23928,17 @@
       <c r="R160">
         <v>0.82299999999999995</v>
       </c>
+      <c r="U160">
+        <v>57</v>
+      </c>
+      <c r="V160">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="W160">
+        <v>0.82299999999999995</v>
+      </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>58</v>
       </c>
@@ -19866,8 +23975,17 @@
       <c r="R161">
         <v>0.82199999999999995</v>
       </c>
+      <c r="U161">
+        <v>58</v>
+      </c>
+      <c r="V161">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="W161">
+        <v>0.82199999999999995</v>
+      </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>59</v>
       </c>
@@ -19904,8 +24022,17 @@
       <c r="R162">
         <v>0.82</v>
       </c>
+      <c r="U162">
+        <v>59</v>
+      </c>
+      <c r="V162">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="W162">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>60</v>
       </c>
@@ -19942,8 +24069,17 @@
       <c r="R163">
         <v>0.81699999999999995</v>
       </c>
+      <c r="U163">
+        <v>60</v>
+      </c>
+      <c r="V163">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="W163">
+        <v>0.81699999999999995</v>
+      </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>61</v>
       </c>
@@ -19980,8 +24116,17 @@
       <c r="R164">
         <v>0.81200000000000006</v>
       </c>
+      <c r="U164">
+        <v>61</v>
+      </c>
+      <c r="V164">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="W164">
+        <v>0.81200000000000006</v>
+      </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>62</v>
       </c>
@@ -20018,8 +24163,17 @@
       <c r="R165">
         <v>0.80700000000000005</v>
       </c>
+      <c r="U165">
+        <v>62</v>
+      </c>
+      <c r="V165">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="W165">
+        <v>0.80700000000000005</v>
+      </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>63</v>
       </c>
@@ -20056,8 +24210,17 @@
       <c r="R166">
         <v>0.85499999999999998</v>
       </c>
+      <c r="U166">
+        <v>63</v>
+      </c>
+      <c r="V166">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="W166">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>64</v>
       </c>
@@ -20094,8 +24257,17 @@
       <c r="R167">
         <v>0.85499999999999998</v>
       </c>
+      <c r="U167">
+        <v>64</v>
+      </c>
+      <c r="V167">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="W167">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>65</v>
       </c>
@@ -20132,8 +24304,17 @@
       <c r="R168">
         <v>0.85399999999999998</v>
       </c>
+      <c r="U168">
+        <v>65</v>
+      </c>
+      <c r="V168">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="W168">
+        <v>0.85099999999999998</v>
+      </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>66</v>
       </c>
@@ -20170,8 +24351,17 @@
       <c r="R169">
         <v>0.85299999999999998</v>
       </c>
+      <c r="U169">
+        <v>66</v>
+      </c>
+      <c r="V169">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="W169">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>67</v>
       </c>
@@ -20208,8 +24398,17 @@
       <c r="R170">
         <v>0.85099999999999998</v>
       </c>
+      <c r="U170">
+        <v>67</v>
+      </c>
+      <c r="V170">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="W170">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>68</v>
       </c>
@@ -20246,8 +24445,17 @@
       <c r="R171">
         <v>0.84799999999999998</v>
       </c>
+      <c r="U171">
+        <v>68</v>
+      </c>
+      <c r="V171">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="W171">
+        <v>0.84499999999999997</v>
+      </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>69</v>
       </c>
@@ -20284,8 +24492,17 @@
       <c r="R172">
         <v>0.84399999999999997</v>
       </c>
+      <c r="U172">
+        <v>69</v>
+      </c>
+      <c r="V172">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="W172">
+        <v>0.84099999999999997</v>
+      </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>70</v>
       </c>
@@ -20322,8 +24539,17 @@
       <c r="R173">
         <v>0.83799999999999997</v>
       </c>
+      <c r="U173">
+        <v>70</v>
+      </c>
+      <c r="V173">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="W173">
+        <v>0.83499999999999996</v>
+      </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>71</v>
       </c>
@@ -20360,8 +24586,17 @@
       <c r="R174">
         <v>0.83099999999999996</v>
       </c>
+      <c r="U174">
+        <v>71</v>
+      </c>
+      <c r="V174">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="W174">
+        <v>0.82799999999999996</v>
+      </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>72</v>
       </c>
@@ -20398,8 +24633,17 @@
       <c r="R175">
         <v>0.82299999999999995</v>
       </c>
+      <c r="U175">
+        <v>72</v>
+      </c>
+      <c r="V175">
+        <v>0.84</v>
+      </c>
+      <c r="W175">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>73</v>
       </c>
@@ -20436,8 +24680,17 @@
       <c r="R176">
         <v>0.81399999999999995</v>
       </c>
+      <c r="U176">
+        <v>73</v>
+      </c>
+      <c r="V176">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="W176">
+        <v>0.81100000000000005</v>
+      </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>74</v>
       </c>
@@ -20474,8 +24727,17 @@
       <c r="R177">
         <v>0.80300000000000005</v>
       </c>
+      <c r="U177">
+        <v>74</v>
+      </c>
+      <c r="V177">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="W177">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>75</v>
       </c>
@@ -20512,8 +24774,17 @@
       <c r="R178">
         <v>0.79100000000000004</v>
       </c>
+      <c r="U178">
+        <v>75</v>
+      </c>
+      <c r="V178">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="W178">
+        <v>0.78800000000000003</v>
+      </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>76</v>
       </c>
@@ -20550,8 +24821,17 @@
       <c r="R179">
         <v>0.77800000000000002</v>
       </c>
+      <c r="U179">
+        <v>76</v>
+      </c>
+      <c r="V179">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="W179">
+        <v>0.77500000000000002</v>
+      </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>77</v>
       </c>
@@ -20588,8 +24868,17 @@
       <c r="R180">
         <v>0.76400000000000001</v>
       </c>
+      <c r="U180">
+        <v>77</v>
+      </c>
+      <c r="V180">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="W180">
+        <v>0.76100000000000001</v>
+      </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>78</v>
       </c>
@@ -20626,8 +24915,17 @@
       <c r="R181">
         <v>0.748</v>
       </c>
+      <c r="U181">
+        <v>78</v>
+      </c>
+      <c r="V181">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="W181">
+        <v>0.745</v>
+      </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>79</v>
       </c>
@@ -20664,8 +24962,17 @@
       <c r="R182">
         <v>0.73099999999999998</v>
       </c>
+      <c r="U182">
+        <v>79</v>
+      </c>
+      <c r="V182">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="W182">
+        <v>0.72799999999999998</v>
+      </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>80</v>
       </c>
@@ -20702,8 +25009,17 @@
       <c r="R183">
         <v>0.71299999999999997</v>
       </c>
+      <c r="U183">
+        <v>80</v>
+      </c>
+      <c r="V183">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="W183">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>81</v>
       </c>
@@ -20740,8 +25056,17 @@
       <c r="R184">
         <v>0.69399999999999995</v>
       </c>
+      <c r="U184">
+        <v>81</v>
+      </c>
+      <c r="V184">
+        <v>0.72</v>
+      </c>
+      <c r="W184">
+        <v>0.69099999999999995</v>
+      </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>82</v>
       </c>
@@ -20778,8 +25103,17 @@
       <c r="R185">
         <v>0.67400000000000004</v>
       </c>
+      <c r="U185">
+        <v>82</v>
+      </c>
+      <c r="V185">
+        <v>0.7</v>
+      </c>
+      <c r="W185">
+        <v>0.67100000000000004</v>
+      </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>83</v>
       </c>
@@ -20816,8 +25150,17 @@
       <c r="R186">
         <v>0.65300000000000002</v>
       </c>
+      <c r="U186">
+        <v>83</v>
+      </c>
+      <c r="V186">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="W186">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>84</v>
       </c>
@@ -20854,8 +25197,17 @@
       <c r="R187">
         <v>0.63100000000000001</v>
       </c>
+      <c r="U187">
+        <v>84</v>
+      </c>
+      <c r="V187">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="W187">
+        <v>0.629</v>
+      </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>85</v>
       </c>
@@ -20892,8 +25244,17 @@
       <c r="R188">
         <v>0.61</v>
       </c>
+      <c r="U188">
+        <v>85</v>
+      </c>
+      <c r="V188">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="W188">
+        <v>0.60699999999999998</v>
+      </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>86</v>
       </c>
@@ -20930,8 +25291,17 @@
       <c r="R189">
         <v>0.58899999999999997</v>
       </c>
+      <c r="U189">
+        <v>86</v>
+      </c>
+      <c r="V189">
+        <v>0.61</v>
+      </c>
+      <c r="W189">
+        <v>0.58599999999999997</v>
+      </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>87</v>
       </c>
@@ -20968,8 +25338,17 @@
       <c r="R190">
         <v>0.56799999999999995</v>
       </c>
+      <c r="U190">
+        <v>87</v>
+      </c>
+      <c r="V190">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="W190">
+        <v>0.56499999999999995</v>
+      </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>88</v>
       </c>
@@ -21006,8 +25385,17 @@
       <c r="R191">
         <v>0.54600000000000004</v>
       </c>
+      <c r="U191">
+        <v>88</v>
+      </c>
+      <c r="V191">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="W191">
+        <v>0.54400000000000004</v>
+      </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>89</v>
       </c>
@@ -21044,8 +25432,17 @@
       <c r="R192">
         <v>0.52500000000000002</v>
       </c>
+      <c r="U192">
+        <v>89</v>
+      </c>
+      <c r="V192">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W192">
+        <v>0.52200000000000002</v>
+      </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>90</v>
       </c>
@@ -21082,8 +25479,17 @@
       <c r="R193">
         <v>0.504</v>
       </c>
+      <c r="U193">
+        <v>90</v>
+      </c>
+      <c r="V193">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="W193">
+        <v>0.501</v>
+      </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>91</v>
       </c>
@@ -21120,8 +25526,17 @@
       <c r="R194">
         <v>0.48299999999999998</v>
       </c>
+      <c r="U194">
+        <v>91</v>
+      </c>
+      <c r="V194">
+        <v>0.495</v>
+      </c>
+      <c r="W194">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>92</v>
       </c>
@@ -21158,8 +25573,17 @@
       <c r="R195">
         <v>0.46100000000000002</v>
       </c>
+      <c r="U195">
+        <v>92</v>
+      </c>
+      <c r="V195">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="W195">
+        <v>0.45900000000000002</v>
+      </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>93</v>
       </c>
@@ -21196,8 +25620,17 @@
       <c r="R196">
         <v>0.44</v>
       </c>
+      <c r="U196">
+        <v>93</v>
+      </c>
+      <c r="V196">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="W196">
+        <v>0.437</v>
+      </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>94</v>
       </c>
@@ -21234,8 +25667,17 @@
       <c r="R197">
         <v>0.41899999999999998</v>
       </c>
+      <c r="U197">
+        <v>94</v>
+      </c>
+      <c r="V197">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="W197">
+        <v>0.41599999999999998</v>
+      </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>95</v>
       </c>
@@ -21272,8 +25714,17 @@
       <c r="R198">
         <v>0.39800000000000002</v>
       </c>
+      <c r="U198">
+        <v>95</v>
+      </c>
+      <c r="V198">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="W198">
+        <v>0.39500000000000002</v>
+      </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>96</v>
       </c>
@@ -21310,8 +25761,17 @@
       <c r="R199">
         <v>0.376</v>
       </c>
+      <c r="U199">
+        <v>96</v>
+      </c>
+      <c r="V199">
+        <v>0.378</v>
+      </c>
+      <c r="W199">
+        <v>0.374</v>
+      </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>97</v>
       </c>
@@ -21348,8 +25808,17 @@
       <c r="R200">
         <v>0.35499999999999998</v>
       </c>
+      <c r="U200">
+        <v>97</v>
+      </c>
+      <c r="V200">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="W200">
+        <v>0.35199999999999998</v>
+      </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>98</v>
       </c>
@@ -21386,8 +25855,17 @@
       <c r="R201">
         <v>0.33400000000000002</v>
       </c>
+      <c r="U201">
+        <v>98</v>
+      </c>
+      <c r="V201">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="W201">
+        <v>0.33100000000000002</v>
+      </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>99</v>
       </c>
@@ -21424,8 +25902,17 @@
       <c r="R202">
         <v>0.313</v>
       </c>
+      <c r="U202">
+        <v>99</v>
+      </c>
+      <c r="V202">
+        <v>0.309</v>
+      </c>
+      <c r="W202">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>100</v>
       </c>
@@ -21462,8 +25949,17 @@
       <c r="R203">
         <v>0.29299999999999998</v>
       </c>
+      <c r="U203">
+        <v>100</v>
+      </c>
+      <c r="V203">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="W203">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>101</v>
       </c>
@@ -21500,8 +25996,17 @@
       <c r="R204">
         <v>0.27400000000000002</v>
       </c>
+      <c r="U204">
+        <v>101</v>
+      </c>
+      <c r="V204">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="W204">
+        <v>0.27100000000000002</v>
+      </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>102</v>
       </c>
@@ -21538,8 +26043,17 @@
       <c r="R205">
         <v>0.255</v>
       </c>
+      <c r="U205">
+        <v>102</v>
+      </c>
+      <c r="V205">
+        <v>0.24</v>
+      </c>
+      <c r="W205">
+        <v>0.253</v>
+      </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>103</v>
       </c>
@@ -21576,8 +26090,17 @@
       <c r="R206">
         <v>0.23899999999999999</v>
       </c>
+      <c r="U206">
+        <v>103</v>
+      </c>
+      <c r="V206">
+        <v>0.22</v>
+      </c>
+      <c r="W206">
+        <v>0.23599999999999999</v>
+      </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>104</v>
       </c>
@@ -21614,8 +26137,17 @@
       <c r="R207">
         <v>0.224</v>
       </c>
+      <c r="U207">
+        <v>104</v>
+      </c>
+      <c r="V207">
+        <v>0.2</v>
+      </c>
+      <c r="W207">
+        <v>0.221</v>
+      </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>105</v>
       </c>
@@ -21652,8 +26184,17 @@
       <c r="R208">
         <v>0.21</v>
       </c>
+      <c r="U208">
+        <v>105</v>
+      </c>
+      <c r="V208">
+        <v>0.183</v>
+      </c>
+      <c r="W208">
+        <v>0.20799999999999999</v>
+      </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>106</v>
       </c>
@@ -21690,8 +26231,17 @@
       <c r="R209">
         <v>0.19900000000000001</v>
       </c>
+      <c r="U209">
+        <v>106</v>
+      </c>
+      <c r="V209">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="W209">
+        <v>0.19600000000000001</v>
+      </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>107</v>
       </c>
@@ -21728,8 +26278,17 @@
       <c r="R210">
         <v>0.188</v>
       </c>
+      <c r="U210">
+        <v>107</v>
+      </c>
+      <c r="V210">
+        <v>0.154</v>
+      </c>
+      <c r="W210">
+        <v>0.185</v>
+      </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>108</v>
       </c>
@@ -21766,8 +26325,17 @@
       <c r="R211">
         <v>0.18</v>
       </c>
+      <c r="U211">
+        <v>108</v>
+      </c>
+      <c r="V211">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="W211">
+        <v>0.17699999999999999</v>
+      </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>109</v>
       </c>
@@ -21804,8 +26372,17 @@
       <c r="R212">
         <v>0.17199999999999999</v>
       </c>
+      <c r="U212">
+        <v>109</v>
+      </c>
+      <c r="V212">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="W212">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>110</v>
       </c>
@@ -21842,8 +26419,17 @@
       <c r="R213">
         <v>0.16700000000000001</v>
       </c>
+      <c r="U213">
+        <v>110</v>
+      </c>
+      <c r="V213">
+        <v>0.123</v>
+      </c>
+      <c r="W213">
+        <v>0.16400000000000001</v>
+      </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>111</v>
       </c>
@@ -21880,8 +26466,17 @@
       <c r="R214">
         <v>0.16300000000000001</v>
       </c>
+      <c r="U214">
+        <v>111</v>
+      </c>
+      <c r="V214">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="W214">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>112</v>
       </c>
@@ -21918,8 +26513,17 @@
       <c r="R215">
         <v>0.16</v>
       </c>
+      <c r="U215">
+        <v>112</v>
+      </c>
+      <c r="V215">
+        <v>0.11</v>
+      </c>
+      <c r="W215">
+        <v>0.157</v>
+      </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>113</v>
       </c>
@@ -21956,8 +26560,17 @@
       <c r="R216">
         <v>0.159</v>
       </c>
+      <c r="U216">
+        <v>113</v>
+      </c>
+      <c r="V216">
+        <v>0.107</v>
+      </c>
+      <c r="W216">
+        <v>0.156</v>
+      </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>114</v>
       </c>
@@ -21994,8 +26607,17 @@
       <c r="R217">
         <v>0.16</v>
       </c>
+      <c r="U217">
+        <v>114</v>
+      </c>
+      <c r="V217">
+        <v>0.104</v>
+      </c>
+      <c r="W217">
+        <v>0.157</v>
+      </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>115</v>
       </c>
@@ -22032,8 +26654,17 @@
       <c r="R218">
         <v>0.16200000000000001</v>
       </c>
+      <c r="U218">
+        <v>115</v>
+      </c>
+      <c r="V218">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="W218">
+        <v>0.159</v>
+      </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>116</v>
       </c>
@@ -22070,8 +26701,17 @@
       <c r="R219">
         <v>0.16500000000000001</v>
       </c>
+      <c r="U219">
+        <v>116</v>
+      </c>
+      <c r="V219">
+        <v>0.104</v>
+      </c>
+      <c r="W219">
+        <v>0.16300000000000001</v>
+      </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>117</v>
       </c>
@@ -22108,8 +26748,17 @@
       <c r="R220">
         <v>0.17</v>
       </c>
+      <c r="U220">
+        <v>117</v>
+      </c>
+      <c r="V220">
+        <v>0.107</v>
+      </c>
+      <c r="W220">
+        <v>0.16700000000000001</v>
+      </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>118</v>
       </c>
@@ -22146,8 +26795,17 @@
       <c r="R221">
         <v>0.17499999999999999</v>
       </c>
+      <c r="U221">
+        <v>118</v>
+      </c>
+      <c r="V221">
+        <v>0.11</v>
+      </c>
+      <c r="W221">
+        <v>0.17199999999999999</v>
+      </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>119</v>
       </c>
@@ -22184,8 +26842,17 @@
       <c r="R222">
         <v>0.18</v>
       </c>
+      <c r="U222">
+        <v>119</v>
+      </c>
+      <c r="V222">
+        <v>0.115</v>
+      </c>
+      <c r="W222">
+        <v>0.17699999999999999</v>
+      </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>120</v>
       </c>
@@ -22222,8 +26889,17 @@
       <c r="R223">
         <v>0.125</v>
       </c>
+      <c r="U223">
+        <v>120</v>
+      </c>
+      <c r="V223">
+        <v>0.115</v>
+      </c>
+      <c r="W223">
+        <v>0.115</v>
+      </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>121</v>
       </c>
@@ -22260,8 +26936,17 @@
       <c r="R224">
         <v>0.125</v>
       </c>
+      <c r="U224">
+        <v>121</v>
+      </c>
+      <c r="V224">
+        <v>0.114</v>
+      </c>
+      <c r="W224">
+        <v>0.115</v>
+      </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>122</v>
       </c>
@@ -22298,8 +26983,17 @@
       <c r="R225">
         <v>0.125</v>
       </c>
+      <c r="U225">
+        <v>122</v>
+      </c>
+      <c r="V225">
+        <v>0.112</v>
+      </c>
+      <c r="W225">
+        <v>0.115</v>
+      </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>123</v>
       </c>
@@ -22336,8 +27030,17 @@
       <c r="R226">
         <v>0.126</v>
       </c>
+      <c r="U226">
+        <v>123</v>
+      </c>
+      <c r="V226">
+        <v>0.11</v>
+      </c>
+      <c r="W226">
+        <v>0.11600000000000001</v>
+      </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>124</v>
       </c>
@@ -22374,8 +27077,17 @@
       <c r="R227">
         <v>0.128</v>
       </c>
+      <c r="U227">
+        <v>124</v>
+      </c>
+      <c r="V227">
+        <v>0.109</v>
+      </c>
+      <c r="W227">
+        <v>0.11799999999999999</v>
+      </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>125</v>
       </c>
@@ -22412,8 +27124,17 @@
       <c r="R228">
         <v>0.13100000000000001</v>
       </c>
+      <c r="U228">
+        <v>125</v>
+      </c>
+      <c r="V228">
+        <v>0.107</v>
+      </c>
+      <c r="W228">
+        <v>0.121</v>
+      </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>126</v>
       </c>
@@ -22450,8 +27171,17 @@
       <c r="R229">
         <v>0.13600000000000001</v>
       </c>
+      <c r="U229">
+        <v>126</v>
+      </c>
+      <c r="V229">
+        <v>0.107</v>
+      </c>
+      <c r="W229">
+        <v>0.126</v>
+      </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>127</v>
       </c>
@@ -22488,8 +27218,17 @@
       <c r="R230">
         <v>0.14099999999999999</v>
       </c>
+      <c r="U230">
+        <v>127</v>
+      </c>
+      <c r="V230">
+        <v>0.11</v>
+      </c>
+      <c r="W230">
+        <v>0.13100000000000001</v>
+      </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>128</v>
       </c>
@@ -22526,8 +27265,17 @@
       <c r="R231">
         <v>0.14799999999999999</v>
       </c>
+      <c r="U231">
+        <v>128</v>
+      </c>
+      <c r="V231">
+        <v>0.113</v>
+      </c>
+      <c r="W231">
+        <v>0.13800000000000001</v>
+      </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>129</v>
       </c>
@@ -22564,8 +27312,17 @@
       <c r="R232">
         <v>0.156</v>
       </c>
+      <c r="U232">
+        <v>129</v>
+      </c>
+      <c r="V232">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="W232">
+        <v>0.14599999999999999</v>
+      </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>130</v>
       </c>
@@ -22602,8 +27359,17 @@
       <c r="R233">
         <v>0.16600000000000001</v>
       </c>
+      <c r="U233">
+        <v>130</v>
+      </c>
+      <c r="V233">
+        <v>0.125</v>
+      </c>
+      <c r="W233">
+        <v>0.156</v>
+      </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>131</v>
       </c>
@@ -22640,8 +27406,17 @@
       <c r="R234">
         <v>0.17599999999999999</v>
       </c>
+      <c r="U234">
+        <v>131</v>
+      </c>
+      <c r="V234">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="W234">
+        <v>0.16600000000000001</v>
+      </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>132</v>
       </c>
@@ -22678,8 +27453,17 @@
       <c r="R235">
         <v>0.188</v>
       </c>
+      <c r="U235">
+        <v>132</v>
+      </c>
+      <c r="V235">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="W235">
+        <v>0.17799999999999999</v>
+      </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>133</v>
       </c>
@@ -22716,8 +27500,17 @@
       <c r="R236">
         <v>0.20100000000000001</v>
       </c>
+      <c r="U236">
+        <v>133</v>
+      </c>
+      <c r="V236">
+        <v>0.153</v>
+      </c>
+      <c r="W236">
+        <v>0.191</v>
+      </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>134</v>
       </c>
@@ -22754,8 +27547,17 @@
       <c r="R237">
         <v>0.216</v>
       </c>
+      <c r="U237">
+        <v>134</v>
+      </c>
+      <c r="V237">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="W237">
+        <v>0.20599999999999999</v>
+      </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>135</v>
       </c>
@@ -22792,8 +27594,17 @@
       <c r="R238">
         <v>0.23100000000000001</v>
       </c>
+      <c r="U238">
+        <v>135</v>
+      </c>
+      <c r="V238">
+        <v>0.182</v>
+      </c>
+      <c r="W238">
+        <v>0.221</v>
+      </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>136</v>
       </c>
@@ -22830,8 +27641,17 @@
       <c r="R239">
         <v>0.248</v>
       </c>
+      <c r="U239">
+        <v>136</v>
+      </c>
+      <c r="V239">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="W239">
+        <v>0.23799999999999999</v>
+      </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>137</v>
       </c>
@@ -22868,8 +27688,17 @@
       <c r="R240">
         <v>0.26600000000000001</v>
       </c>
+      <c r="U240">
+        <v>137</v>
+      </c>
+      <c r="V240">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="W240">
+        <v>0.25600000000000001</v>
+      </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>138</v>
       </c>
@@ -22906,8 +27735,17 @@
       <c r="R241">
         <v>0.28599999999999998</v>
       </c>
+      <c r="U241">
+        <v>138</v>
+      </c>
+      <c r="V241">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="W241">
+        <v>0.27600000000000002</v>
+      </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>139</v>
       </c>
@@ -22944,8 +27782,17 @@
       <c r="R242">
         <v>0.30599999999999999</v>
       </c>
+      <c r="U242">
+        <v>139</v>
+      </c>
+      <c r="V242">
+        <v>0.25</v>
+      </c>
+      <c r="W242">
+        <v>0.29599999999999999</v>
+      </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>140</v>
       </c>
@@ -22982,8 +27829,17 @@
       <c r="R243">
         <v>0.32700000000000001</v>
       </c>
+      <c r="U243">
+        <v>140</v>
+      </c>
+      <c r="V243">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="W243">
+        <v>0.317</v>
+      </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>141</v>
       </c>
@@ -23020,8 +27876,17 @@
       <c r="R244">
         <v>0.34799999999999998</v>
       </c>
+      <c r="U244">
+        <v>141</v>
+      </c>
+      <c r="V244">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="W244">
+        <v>0.33800000000000002</v>
+      </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>142</v>
       </c>
@@ -23058,8 +27923,17 @@
       <c r="R245">
         <v>0.36899999999999999</v>
       </c>
+      <c r="U245">
+        <v>142</v>
+      </c>
+      <c r="V245">
+        <v>0.316</v>
+      </c>
+      <c r="W245">
+        <v>0.35899999999999999</v>
+      </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>143</v>
       </c>
@@ -23096,8 +27970,17 @@
       <c r="R246">
         <v>0.39</v>
       </c>
+      <c r="U246">
+        <v>143</v>
+      </c>
+      <c r="V246">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="W246">
+        <v>0.38100000000000001</v>
+      </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>144</v>
       </c>
@@ -23134,8 +28017,17 @@
       <c r="R247">
         <v>0.41199999999999998</v>
       </c>
+      <c r="U247">
+        <v>144</v>
+      </c>
+      <c r="V247">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="W247">
+        <v>0.40200000000000002</v>
+      </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>145</v>
       </c>
@@ -23172,8 +28064,17 @@
       <c r="R248">
         <v>0.433</v>
       </c>
+      <c r="U248">
+        <v>145</v>
+      </c>
+      <c r="V248">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="W248">
+        <v>0.42299999999999999</v>
+      </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>146</v>
       </c>
@@ -23210,8 +28111,17 @@
       <c r="R249">
         <v>0.45400000000000001</v>
       </c>
+      <c r="U249">
+        <v>146</v>
+      </c>
+      <c r="V249">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="W249">
+        <v>0.44400000000000001</v>
+      </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>147</v>
       </c>
@@ -23248,8 +28158,17 @@
       <c r="R250">
         <v>0.47499999999999998</v>
       </c>
+      <c r="U250">
+        <v>147</v>
+      </c>
+      <c r="V250">
+        <v>0.435</v>
+      </c>
+      <c r="W250">
+        <v>0.46600000000000003</v>
+      </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>148</v>
       </c>
@@ -23286,8 +28205,17 @@
       <c r="R251">
         <v>0.497</v>
       </c>
+      <c r="U251">
+        <v>148</v>
+      </c>
+      <c r="V251">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="W251">
+        <v>0.48699999999999999</v>
+      </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>149</v>
       </c>
@@ -23324,8 +28252,17 @@
       <c r="R252">
         <v>0.51800000000000002</v>
       </c>
+      <c r="U252">
+        <v>149</v>
+      </c>
+      <c r="V252">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="W252">
+        <v>0.50800000000000001</v>
+      </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>150</v>
       </c>
@@ -23362,8 +28299,17 @@
       <c r="R253">
         <v>0.53900000000000003</v>
       </c>
+      <c r="U253">
+        <v>150</v>
+      </c>
+      <c r="V253">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="W253">
+        <v>0.52900000000000003</v>
+      </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>151</v>
       </c>
@@ -23400,8 +28346,17 @@
       <c r="R254">
         <v>0.56000000000000005</v>
       </c>
+      <c r="U254">
+        <v>151</v>
+      </c>
+      <c r="V254">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="W254">
+        <v>0.55100000000000005</v>
+      </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>152</v>
       </c>
@@ -23438,8 +28393,17 @@
       <c r="R255">
         <v>0.58199999999999996</v>
       </c>
+      <c r="U255">
+        <v>152</v>
+      </c>
+      <c r="V255">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="W255">
+        <v>0.57199999999999995</v>
+      </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>153</v>
       </c>
@@ -23476,8 +28440,17 @@
       <c r="R256">
         <v>0.60299999999999998</v>
       </c>
+      <c r="U256">
+        <v>153</v>
+      </c>
+      <c r="V256">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="W256">
+        <v>0.59299999999999997</v>
+      </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>154</v>
       </c>
@@ -23514,8 +28487,17 @@
       <c r="R257">
         <v>0.624</v>
       </c>
+      <c r="U257">
+        <v>154</v>
+      </c>
+      <c r="V257">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="W257">
+        <v>0.61399999999999999</v>
+      </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>155</v>
       </c>
@@ -23552,8 +28534,17 @@
       <c r="R258">
         <v>0.64500000000000002</v>
       </c>
+      <c r="U258">
+        <v>155</v>
+      </c>
+      <c r="V258">
+        <v>0.628</v>
+      </c>
+      <c r="W258">
+        <v>0.63600000000000001</v>
+      </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>156</v>
       </c>
@@ -23590,8 +28581,17 @@
       <c r="R259">
         <v>0.66700000000000004</v>
       </c>
+      <c r="U259">
+        <v>156</v>
+      </c>
+      <c r="V259">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="W259">
+        <v>0.65700000000000003</v>
+      </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>157</v>
       </c>
@@ -23628,8 +28628,17 @@
       <c r="R260">
         <v>0.68799999999999994</v>
       </c>
+      <c r="U260">
+        <v>157</v>
+      </c>
+      <c r="V260">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="W260">
+        <v>0.67800000000000005</v>
+      </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>158</v>
       </c>
@@ -23666,8 +28675,17 @@
       <c r="R261">
         <v>0.70899999999999996</v>
       </c>
+      <c r="U261">
+        <v>158</v>
+      </c>
+      <c r="V261">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="W261">
+        <v>0.69899999999999995</v>
+      </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>159</v>
       </c>
@@ -23704,8 +28722,17 @@
       <c r="R262">
         <v>0.73</v>
       </c>
+      <c r="U262">
+        <v>159</v>
+      </c>
+      <c r="V262">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="W262">
+        <v>0.72099999999999997</v>
+      </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>160</v>
       </c>
@@ -23742,8 +28769,17 @@
       <c r="R263">
         <v>0.752</v>
       </c>
+      <c r="U263">
+        <v>160</v>
+      </c>
+      <c r="V263">
+        <v>0.75</v>
+      </c>
+      <c r="W263">
+        <v>0.74199999999999999</v>
+      </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>161</v>
       </c>
@@ -23780,8 +28816,17 @@
       <c r="R264">
         <v>0.77300000000000002</v>
       </c>
+      <c r="U264">
+        <v>161</v>
+      </c>
+      <c r="V264">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="W264">
+        <v>0.76300000000000001</v>
+      </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>162</v>
       </c>
@@ -23818,8 +28863,17 @@
       <c r="R265">
         <v>0.79400000000000004</v>
       </c>
+      <c r="U265">
+        <v>162</v>
+      </c>
+      <c r="V265">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="W265">
+        <v>0.78400000000000003</v>
+      </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>163</v>
       </c>
@@ -23856,8 +28910,17 @@
       <c r="R266">
         <v>0.81499999999999995</v>
       </c>
+      <c r="U266">
+        <v>163</v>
+      </c>
+      <c r="V266">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="W266">
+        <v>0.80600000000000005</v>
+      </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>164</v>
       </c>
@@ -23894,8 +28957,17 @@
       <c r="R267">
         <v>0.83699999999999997</v>
       </c>
+      <c r="U267">
+        <v>164</v>
+      </c>
+      <c r="V267">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="W267">
+        <v>0.82699999999999996</v>
+      </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>165</v>
       </c>
@@ -23932,8 +29004,17 @@
       <c r="R268">
         <v>0.85799999999999998</v>
       </c>
+      <c r="U268">
+        <v>165</v>
+      </c>
+      <c r="V268">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="W268">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>166</v>
       </c>
@@ -23970,8 +29051,17 @@
       <c r="R269">
         <v>0.879</v>
       </c>
+      <c r="U269">
+        <v>166</v>
+      </c>
+      <c r="V269">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="W269">
+        <v>0.86899999999999999</v>
+      </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>167</v>
       </c>
@@ -24008,8 +29098,17 @@
       <c r="R270">
         <v>0.9</v>
       </c>
+      <c r="U270">
+        <v>167</v>
+      </c>
+      <c r="V270">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="W270">
+        <v>0.89100000000000001</v>
+      </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>168</v>
       </c>
@@ -24046,8 +29145,17 @@
       <c r="R271">
         <v>0.92200000000000004</v>
       </c>
+      <c r="U271">
+        <v>168</v>
+      </c>
+      <c r="V271">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="W271">
+        <v>0.91200000000000003</v>
+      </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>169</v>
       </c>
@@ -24084,8 +29192,17 @@
       <c r="R272">
         <v>0.94299999999999995</v>
       </c>
+      <c r="U272">
+        <v>169</v>
+      </c>
+      <c r="V272">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="W272">
+        <v>0.93300000000000005</v>
+      </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>170</v>
       </c>
@@ -24122,8 +29239,17 @@
       <c r="R273">
         <v>0.96399999999999997</v>
       </c>
+      <c r="U273">
+        <v>170</v>
+      </c>
+      <c r="V273">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="W273">
+        <v>0.95399999999999996</v>
+      </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>171</v>
       </c>
@@ -24160,8 +29286,17 @@
       <c r="R274">
         <v>0.98499999999999999</v>
       </c>
+      <c r="U274">
+        <v>171</v>
+      </c>
+      <c r="V274">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="W274">
+        <v>0.97599999999999998</v>
+      </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>172</v>
       </c>
@@ -24198,8 +29333,17 @@
       <c r="R275">
         <v>1.0069999999999999</v>
       </c>
+      <c r="U275">
+        <v>172</v>
+      </c>
+      <c r="V275">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="W275">
+        <v>0.997</v>
+      </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>173</v>
       </c>
@@ -24236,8 +29380,17 @@
       <c r="R276">
         <v>1.028</v>
       </c>
+      <c r="U276">
+        <v>173</v>
+      </c>
+      <c r="V276">
+        <v>1.054</v>
+      </c>
+      <c r="W276">
+        <v>1.018</v>
+      </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>174</v>
       </c>
@@ -24274,8 +29427,17 @@
       <c r="R277">
         <v>1.0489999999999999</v>
       </c>
+      <c r="U277">
+        <v>174</v>
+      </c>
+      <c r="V277">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="W277">
+        <v>1.0389999999999999</v>
+      </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>175</v>
       </c>
@@ -24312,8 +29474,17 @@
       <c r="R278">
         <v>1.07</v>
       </c>
+      <c r="U278">
+        <v>175</v>
+      </c>
+      <c r="V278">
+        <v>1.099</v>
+      </c>
+      <c r="W278">
+        <v>1.0609999999999999</v>
+      </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>176</v>
       </c>
@@ -24350,8 +29521,17 @@
       <c r="R279">
         <v>1.0920000000000001</v>
       </c>
+      <c r="U279">
+        <v>176</v>
+      </c>
+      <c r="V279">
+        <v>1.121</v>
+      </c>
+      <c r="W279">
+        <v>1.0820000000000001</v>
+      </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>177</v>
       </c>
@@ -24388,8 +29568,17 @@
       <c r="R280">
         <v>1.113</v>
       </c>
+      <c r="U280">
+        <v>177</v>
+      </c>
+      <c r="V280">
+        <v>1.143</v>
+      </c>
+      <c r="W280">
+        <v>1.103</v>
+      </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>178</v>
       </c>
@@ -24426,8 +29615,17 @@
       <c r="R281">
         <v>1.1339999999999999</v>
       </c>
+      <c r="U281">
+        <v>178</v>
+      </c>
+      <c r="V281">
+        <v>1.165</v>
+      </c>
+      <c r="W281">
+        <v>1.1240000000000001</v>
+      </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>179</v>
       </c>
@@ -24464,8 +29662,17 @@
       <c r="R282">
         <v>1.155</v>
       </c>
+      <c r="U282">
+        <v>179</v>
+      </c>
+      <c r="V282">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="W282">
+        <v>1.1459999999999999</v>
+      </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>180</v>
       </c>
@@ -24502,8 +29709,17 @@
       <c r="R283">
         <v>1.177</v>
       </c>
+      <c r="U283">
+        <v>180</v>
+      </c>
+      <c r="V283">
+        <v>1.208</v>
+      </c>
+      <c r="W283">
+        <v>1.167</v>
+      </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>181</v>
       </c>
@@ -24540,8 +29756,17 @@
       <c r="R284">
         <v>1.198</v>
       </c>
+      <c r="U284">
+        <v>181</v>
+      </c>
+      <c r="V284">
+        <v>1.23</v>
+      </c>
+      <c r="W284">
+        <v>1.1879999999999999</v>
+      </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>182</v>
       </c>
@@ -24578,8 +29803,17 @@
       <c r="R285">
         <v>1.2190000000000001</v>
       </c>
+      <c r="U285">
+        <v>182</v>
+      </c>
+      <c r="V285">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="W285">
+        <v>1.2090000000000001</v>
+      </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>183</v>
       </c>
@@ -24616,8 +29850,17 @@
       <c r="R286">
         <v>1.24</v>
       </c>
+      <c r="U286">
+        <v>183</v>
+      </c>
+      <c r="V286">
+        <v>1.272</v>
+      </c>
+      <c r="W286">
+        <v>1.2310000000000001</v>
+      </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>184</v>
       </c>
@@ -24654,8 +29897,17 @@
       <c r="R287">
         <v>1.262</v>
       </c>
+      <c r="U287">
+        <v>184</v>
+      </c>
+      <c r="V287">
+        <v>1.294</v>
+      </c>
+      <c r="W287">
+        <v>1.252</v>
+      </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>185</v>
       </c>
@@ -24692,8 +29944,17 @@
       <c r="R288">
         <v>1.2829999999999999</v>
       </c>
+      <c r="U288">
+        <v>185</v>
+      </c>
+      <c r="V288">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="W288">
+        <v>1.2729999999999999</v>
+      </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>186</v>
       </c>
@@ -24730,8 +29991,17 @@
       <c r="R289">
         <v>1.304</v>
       </c>
+      <c r="U289">
+        <v>186</v>
+      </c>
+      <c r="V289">
+        <v>1.335</v>
+      </c>
+      <c r="W289">
+        <v>1.294</v>
+      </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>187</v>
       </c>
@@ -24768,8 +30038,17 @@
       <c r="R290">
         <v>1.325</v>
       </c>
+      <c r="U290">
+        <v>187</v>
+      </c>
+      <c r="V290">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="W290">
+        <v>1.3160000000000001</v>
+      </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>188</v>
       </c>
@@ -24806,8 +30085,17 @@
       <c r="R291">
         <v>1.347</v>
       </c>
+      <c r="U291">
+        <v>188</v>
+      </c>
+      <c r="V291">
+        <v>1.377</v>
+      </c>
+      <c r="W291">
+        <v>1.337</v>
+      </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>189</v>
       </c>
@@ -24844,8 +30132,17 @@
       <c r="R292">
         <v>1.3680000000000001</v>
       </c>
+      <c r="U292">
+        <v>189</v>
+      </c>
+      <c r="V292">
+        <v>1.397</v>
+      </c>
+      <c r="W292">
+        <v>1.3580000000000001</v>
+      </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>190</v>
       </c>
@@ -24882,8 +30179,17 @@
       <c r="R293">
         <v>1.389</v>
       </c>
+      <c r="U293">
+        <v>190</v>
+      </c>
+      <c r="V293">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="W293">
+        <v>1.379</v>
+      </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>191</v>
       </c>
@@ -24920,8 +30226,17 @@
       <c r="R294">
         <v>1.41</v>
       </c>
+      <c r="U294">
+        <v>191</v>
+      </c>
+      <c r="V294">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="W294">
+        <v>1.401</v>
+      </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>192</v>
       </c>
@@ -24958,8 +30273,17 @@
       <c r="R295">
         <v>1.4319999999999999</v>
       </c>
+      <c r="U295">
+        <v>192</v>
+      </c>
+      <c r="V295">
+        <v>1.458</v>
+      </c>
+      <c r="W295">
+        <v>1.4219999999999999</v>
+      </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>193</v>
       </c>
@@ -24996,8 +30320,17 @@
       <c r="R296">
         <v>1.4530000000000001</v>
       </c>
+      <c r="U296">
+        <v>193</v>
+      </c>
+      <c r="V296">
+        <v>1.478</v>
+      </c>
+      <c r="W296">
+        <v>1.4430000000000001</v>
+      </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>194</v>
       </c>
@@ -25034,8 +30367,17 @@
       <c r="R297">
         <v>1.474</v>
       </c>
+      <c r="U297">
+        <v>194</v>
+      </c>
+      <c r="V297">
+        <v>1.498</v>
+      </c>
+      <c r="W297">
+        <v>1.464</v>
+      </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>195</v>
       </c>
@@ -25072,8 +30414,17 @@
       <c r="R298">
         <v>1.4950000000000001</v>
       </c>
+      <c r="U298">
+        <v>195</v>
+      </c>
+      <c r="V298">
+        <v>1.518</v>
+      </c>
+      <c r="W298">
+        <v>1.486</v>
+      </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>196</v>
       </c>
@@ -25110,8 +30461,17 @@
       <c r="R299">
         <v>1.5169999999999999</v>
       </c>
+      <c r="U299">
+        <v>196</v>
+      </c>
+      <c r="V299">
+        <v>1.538</v>
+      </c>
+      <c r="W299">
+        <v>1.5069999999999999</v>
+      </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>197</v>
       </c>
@@ -25148,8 +30508,17 @@
       <c r="R300">
         <v>1.5369999999999999</v>
       </c>
+      <c r="U300">
+        <v>197</v>
+      </c>
+      <c r="V300">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="W300">
+        <v>1.528</v>
+      </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>198</v>
       </c>
@@ -25186,8 +30555,17 @@
       <c r="R301">
         <v>1.5580000000000001</v>
       </c>
+      <c r="U301">
+        <v>198</v>
+      </c>
+      <c r="V301">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="W301">
+        <v>1.548</v>
+      </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>199</v>
       </c>
@@ -25224,8 +30602,17 @@
       <c r="R302">
         <v>1.577</v>
       </c>
+      <c r="U302">
+        <v>199</v>
+      </c>
+      <c r="V302">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="W302">
+        <v>1.5669999999999999</v>
+      </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>200</v>
       </c>
@@ -25262,8 +30649,17 @@
       <c r="R303">
         <v>1.595</v>
       </c>
+      <c r="U303">
+        <v>200</v>
+      </c>
+      <c r="V303">
+        <v>1.617</v>
+      </c>
+      <c r="W303">
+        <v>1.585</v>
+      </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>201</v>
       </c>
@@ -25300,8 +30696,17 @@
       <c r="R304">
         <v>1.6120000000000001</v>
       </c>
+      <c r="U304">
+        <v>201</v>
+      </c>
+      <c r="V304">
+        <v>1.635</v>
+      </c>
+      <c r="W304">
+        <v>1.6020000000000001</v>
+      </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>202</v>
       </c>
@@ -25338,8 +30743,17 @@
       <c r="R305">
         <v>1.627</v>
       </c>
+      <c r="U305">
+        <v>202</v>
+      </c>
+      <c r="V305">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="W305">
+        <v>1.617</v>
+      </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>203</v>
       </c>
@@ -25376,8 +30790,17 @@
       <c r="R306">
         <v>1.64</v>
       </c>
+      <c r="U306">
+        <v>203</v>
+      </c>
+      <c r="V306">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="W306">
+        <v>1.63</v>
+      </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>204</v>
       </c>
@@ -25414,8 +30837,17 @@
       <c r="R307">
         <v>1.6519999999999999</v>
       </c>
+      <c r="U307">
+        <v>204</v>
+      </c>
+      <c r="V307">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="W307">
+        <v>1.6419999999999999</v>
+      </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>205</v>
       </c>
@@ -25452,8 +30884,17 @@
       <c r="R308">
         <v>1.6619999999999999</v>
       </c>
+      <c r="U308">
+        <v>205</v>
+      </c>
+      <c r="V308">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="W308">
+        <v>1.653</v>
+      </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>206</v>
       </c>
@@ -25490,8 +30931,17 @@
       <c r="R309">
         <v>1.671</v>
       </c>
+      <c r="U309">
+        <v>206</v>
+      </c>
+      <c r="V309">
+        <v>1.704</v>
+      </c>
+      <c r="W309">
+        <v>1.661</v>
+      </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>207</v>
       </c>
@@ -25528,8 +30978,17 @@
       <c r="R310">
         <v>1.6779999999999999</v>
       </c>
+      <c r="U310">
+        <v>207</v>
+      </c>
+      <c r="V310">
+        <v>1.712</v>
+      </c>
+      <c r="W310">
+        <v>1.6679999999999999</v>
+      </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>208</v>
       </c>
@@ -25566,8 +31025,17 @@
       <c r="R311">
         <v>1.6839999999999999</v>
       </c>
+      <c r="U311">
+        <v>208</v>
+      </c>
+      <c r="V311">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="W311">
+        <v>1.6739999999999999</v>
+      </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>209</v>
       </c>
@@ -25604,8 +31072,17 @@
       <c r="R312">
         <v>1.6879999999999999</v>
       </c>
+      <c r="U312">
+        <v>209</v>
+      </c>
+      <c r="V312">
+        <v>1.724</v>
+      </c>
+      <c r="W312">
+        <v>1.6779999999999999</v>
+      </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>210</v>
       </c>
@@ -25642,8 +31119,17 @@
       <c r="R313">
         <v>1.69</v>
       </c>
+      <c r="U313">
+        <v>210</v>
+      </c>
+      <c r="V313">
+        <v>1.728</v>
+      </c>
+      <c r="W313">
+        <v>1.681</v>
+      </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>211</v>
       </c>
@@ -25680,8 +31166,17 @@
       <c r="R314">
         <v>1.6910000000000001</v>
       </c>
+      <c r="U314">
+        <v>211</v>
+      </c>
+      <c r="V314">
+        <v>1.73</v>
+      </c>
+      <c r="W314">
+        <v>1.6819999999999999</v>
+      </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>212</v>
       </c>
@@ -25718,8 +31213,17 @@
       <c r="R315">
         <v>1.6910000000000001</v>
       </c>
+      <c r="U315">
+        <v>212</v>
+      </c>
+      <c r="V315">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="W315">
+        <v>1.681</v>
+      </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>213</v>
       </c>
@@ -25756,8 +31260,17 @@
       <c r="R316">
         <v>1.6890000000000001</v>
       </c>
+      <c r="U316">
+        <v>213</v>
+      </c>
+      <c r="V316">
+        <v>1.73</v>
+      </c>
+      <c r="W316">
+        <v>1.679</v>
+      </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>214</v>
       </c>
@@ -25794,8 +31307,17 @@
       <c r="R317">
         <v>1.6850000000000001</v>
       </c>
+      <c r="U317">
+        <v>214</v>
+      </c>
+      <c r="V317">
+        <v>1.728</v>
+      </c>
+      <c r="W317">
+        <v>1.675</v>
+      </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>215</v>
       </c>
@@ -25832,8 +31354,17 @@
       <c r="R318">
         <v>1.681</v>
       </c>
+      <c r="U318">
+        <v>215</v>
+      </c>
+      <c r="V318">
+        <v>1.724</v>
+      </c>
+      <c r="W318">
+        <v>1.671</v>
+      </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>216</v>
       </c>
@@ -25870,8 +31401,17 @@
       <c r="R319">
         <v>1.6759999999999999</v>
       </c>
+      <c r="U319">
+        <v>216</v>
+      </c>
+      <c r="V319">
+        <v>1.718</v>
+      </c>
+      <c r="W319">
+        <v>1.6659999999999999</v>
+      </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F320">
         <v>217</v>
       </c>
@@ -25880,6 +31420,15 @@
       </c>
       <c r="H320">
         <v>1.7210000000000001</v>
+      </c>
+      <c r="U320">
+        <v>217</v>
+      </c>
+      <c r="V320">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="W320">
+        <v>1.661</v>
       </c>
     </row>
     <row r="321" spans="6:8" x14ac:dyDescent="0.3">

--- a/datas/Processed notebook datas/All_processed_values.xlsx
+++ b/datas/Processed notebook datas/All_processed_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomm\.vscode\Folders\Github\Mobile-Robot\datas\Processed notebook datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CCDAC1-10DD-49DB-9F8B-954855D4DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274461DC-0369-4A28-9A0E-285BA311420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{D227F301-55E0-4A21-BB0B-C04091E3F129}"/>
   </bookViews>
@@ -23,9 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
-    <t>Run 1 .</t>
+    <t>index</t>
+  </si>
+  <si>
+    <t>x_ref</t>
+  </si>
+  <si>
+    <t>x_estimated</t>
   </si>
 </sst>
 </file>
@@ -604,3006 +610,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Kp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> = 1.0 Ki = 0.5</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.9080927384076991E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.87747462817147859"/>
-          <c:h val="0.6153546952464275"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]tom_0_5_processed!$A$2:$A$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>216</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]tom_0_5_processed!$B$2:$B$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.8000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.6000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.129</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.14699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.29399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.315</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.35899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.40200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.42399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.44600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.46800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.51200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.53400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.55600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.57699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.59899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.621</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.64300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.68700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.70799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.72899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.748</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.76600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.79600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.80800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.81899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.82799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.83599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.84299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.84699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.85299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.85099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.84799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.84599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.85299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.85299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.84699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.84199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.83599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.82799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.81699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.80700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.79500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.78100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.76600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.73299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.69399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.65100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.628</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.60499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.58299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.51600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.49299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.44800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.40200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.35699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.312</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.26700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.22600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.20699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.191</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.17599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.16300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.151</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.14199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.122</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.11799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.11600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.11799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.11799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.114</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.111</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.109</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.16500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.17899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.19400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.26600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.28599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.308</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.33100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.35299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.39800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.442</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.46400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.48699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.50900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.53200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.55500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.57699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.623</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.64500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.66800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.69099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.71299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.73599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.75800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.78100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.80300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.82599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.84799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.89200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.93700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.95899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.98099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.0029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1.026</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.048</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1.069</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.091</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1.113</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1.135</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1.157</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1.179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1.222</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.244</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1.266</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1.2869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1.3089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1.3520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1.373</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1.395</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1.4159999999999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1.4379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1.4590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.502</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1.5229999999999999</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1.544</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>1.5660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1.587</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1.6080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1.627</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1.645</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1.6619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1.677</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1.6879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1.698</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1.7090000000000001</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1.716</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1.7190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1.7230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1.728</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1.7290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>1.728</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>1.728</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>1.7270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1.722</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1.716</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64D0-4716-B6EC-4C587E2A30BA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]tom_0_5_processed!$A$2:$A$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>216</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]tom_0_5_processed!$C$2:$C$217</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.0999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.123</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.14099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.18099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.223</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.26600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.28699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.308</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.32900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.35099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.39300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.41399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.436</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.499</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.52100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.54200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.56299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.58399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.60599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.627</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.64800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.66900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.68899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.70899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.72699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.74299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.75800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.77200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.78300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.79400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.80300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.81499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.81899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.82199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.82299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.82199999999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.81699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.81200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.80700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.84299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.84099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.83799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.83299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.82799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.82099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.81299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.80300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.79300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.78100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.753</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.73799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.72099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.70299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.68300000000000005</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.66300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.64200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.621</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.57899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.55700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.53600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.51500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.49399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.47199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.45100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.40899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.38700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.36599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.34499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.32400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.30299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.28299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.245</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.214</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.188</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.17799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.16900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.16200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.156</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.14899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.14899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.151</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.122</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.14399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.152</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.17199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.184</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.19700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.21099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.22700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.28100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.30199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.32300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.34399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.38600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.40799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.42899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.47099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.49299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.51400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.53500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.55600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.57799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.59899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.64100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.66300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.68400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.70499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.72599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.748</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.76900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.81100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.83299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.85399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.89600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.91800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.93899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.98099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.0029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1.024</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.0449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1.0660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.0880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1.109</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1.151</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1.173</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1.194</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1.2150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.236</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1.258</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1.2789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1.321</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1.343</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1.3640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1.385</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1.4059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1.4279999999999999</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1.4490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1.4910000000000001</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1.512</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1.5329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>1.554</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1.573</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1.591</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1.6080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1.623</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1.6359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1.6479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1.6579999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1.667</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1.6739999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1.68</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1.6839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1.6859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1.6870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1.6870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>1.6839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>1.681</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>1.677</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1.6719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1.667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64D0-4716-B6EC-4C587E2A30BA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="459821568"/>
-        <c:axId val="459822528"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="459821568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459822528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="459822528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459821568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
               <a:t>Jp</a:t>
             </a:r>
             <a:r>
@@ -3647,32 +653,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5000,7 +1996,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-40DD-88EE-75662DF36CFE}"/>
@@ -5011,26 +2007,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -6358,7 +3344,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDCA-40DD-88EE-75662DF36CFE}"/>
@@ -6583,7 +3569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6661,32 +3647,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8002,7 +4978,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D6F7-4110-8FA0-CD5E66C7774A}"/>
@@ -8013,26 +4989,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -9348,7 +6314,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6F7-4110-8FA0-CD5E66C7774A}"/>
@@ -9573,7 +6539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9651,32 +6617,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -10992,7 +7948,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11AE-43A3-B5D4-5AA909CDFE1B}"/>
@@ -11003,26 +7959,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -12338,7 +9284,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-11AE-43A3-B5D4-5AA909CDFE1B}"/>
@@ -12563,7 +9509,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12641,32 +9587,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -13988,7 +10924,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-02EF-4998-8C9F-E65D444D9662}"/>
@@ -13999,26 +10935,16 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -15340,7 +12266,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-02EF-4998-8C9F-E65D444D9662}"/>
@@ -15521,6 +12447,2966 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Run 1 Kp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> = 1.0 Ki = 0.5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tom_0_5_processed!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x_estimated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$A$104:$A$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$B$104:$B$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.026</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.048</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.069</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.091</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.113</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.135</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.157</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.244</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.266</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.3520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.373</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.395</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.4159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.4379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.502</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.5229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.544</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.5660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.587</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.627</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.645</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.677</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.6879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.698</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.7090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.7190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.7230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.7290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.7270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.722</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEA5-45A0-A861-EDDD813595F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tom_0_5_processed!$C$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x_ref</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$A$104:$A$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tom_0_5_processed!$C$104:$C$319</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="216"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.30299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.024</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.0880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.109</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.151</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.173</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.194</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.2150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.258</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.321</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.343</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.385</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.4059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.4490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.512</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.5329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.554</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.573</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.623</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.6359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.6479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.6579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.667</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.6739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.6839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.6870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.6870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.6839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.677</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.6719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEA5-45A0-A861-EDDD813595F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="451175392"/>
+        <c:axId val="451171552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="451175392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451171552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="451171552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451175392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -18349,44 +18235,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C20FFF-E8A7-4AD9-BC59-E303CEF9E86F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -18415,7 +18263,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18453,7 +18301,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18461,16 +18309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441672</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>589470</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123644</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18489,7 +18337,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18520,6 +18368,42 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164909</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437865</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120556</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CF1560-E1E3-80CE-DB13-C9D83C0B0DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -21248,8 +21132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89D4DA-E4D8-4505-B910-587E46D2F485}">
   <dimension ref="A103:W321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" workbookViewId="0">
-      <selection activeCell="AF46" sqref="AF46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="67" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21258,6 +21142,48 @@
       <c r="A103" t="s">
         <v>0</v>
       </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>2</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1</v>
+      </c>
+      <c r="U103" t="s">
+        <v>0</v>
+      </c>
+      <c r="V103" t="s">
+        <v>2</v>
+      </c>
+      <c r="W103" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
